--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="14.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.22785301172232197</v>
+        <v>0.22259647721730058</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22221899620084556</v>
+        <v>0.021629535900314356</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0064464696896701602</v>
+        <v>-0.19381808478134077</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0025573437602193798</v>
+        <v>-0.0022704240785043506</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0025027926480472073</v>
+        <v>0.0080958453893126003</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0043673029567725353</v>
+        <v>-0.016834515056341381</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00029045956280502922</v>
+        <v>0.0018205790934732514</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0008341814769723655</v>
+        <v>0.0061316538547045926</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00038064657991040973</v>
+        <v>-0.0040919957382901662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3207340253956148</v>
+        <v>0.35846363399591591</v>
       </c>
       <c r="C4" s="0">
-        <v>0.087252389792493529</v>
+        <v>0.2884619634521205</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0013958304495549402</v>
+        <v>-0.0049129956548890743</v>
       </c>
       <c r="F4" s="0">
-        <v>0.001064578778985543</v>
+        <v>-0.00065874298203397056</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00011959257267505382</v>
+        <v>-0.0053909820795679294</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0083899730651797334</v>
+        <v>0.049347928032376004</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.004746745418807311</v>
+        <v>0.0049113105913742607</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0052785951000378639</v>
+        <v>0.0050756167362217552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34270042962281105</v>
+        <v>0.2959537826106034</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.027046101797627987</v>
+        <v>0.049615870060847118</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0041758037833453986</v>
+        <v>-0.012462688555648476</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00056798493996219532</v>
+        <v>-0.15949079221639326</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00089467694524299592</v>
+        <v>0.026985418034222011</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0010178529237666765</v>
+        <v>-0.009909307134813073</v>
       </c>
       <c r="I5" s="0">
-        <v>0.034617564482584455</v>
+        <v>-0.0004603687169412432</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0088745928298469279</v>
+        <v>0.043212017143414438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28488389830062549</v>
+        <v>0.11938987459223313</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.075019167621792504</v>
+        <v>-0.15273641645964178</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0023045736704499381</v>
+        <v>0.00928344068298919</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00029198841812050368</v>
+        <v>-0.0019940158919580448</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00036474027932903875</v>
+        <v>-0.0059275053578890504</v>
       </c>
       <c r="I6" s="0">
-        <v>0.032683501372286941</v>
+        <v>-0.031024699981158518</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.013833020099679627</v>
+        <v>0.0058352889892879234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.19691351909792915</v>
+        <v>0.15926847673639863</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.096248431519823596</v>
+        <v>0.19241093069533705</v>
       </c>
       <c r="E7" s="0">
-        <v>0.020678168374708754</v>
+        <v>0.048002966343960743</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0036535044062226403</v>
+        <v>-0.13220156628739818</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0047500694164342083</v>
+        <v>-0.023696061860018512</v>
       </c>
       <c r="H7" s="0">
-        <v>-5.5018210117939006e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0067329695883253382</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.010674493613132052</v>
+        <v>-0.044637666747715604</v>
       </c>
     </row>
     <row r="8">
